--- a/review_data_full.xlsx
+++ b/review_data_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xxscarlett/Desktop/monitor_review/monitor_review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD6AB41-D5DB-2746-8AE1-58E82987D9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50F84F-23F0-EB49-9355-526330AB99EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="215">
   <si>
     <t>model</t>
   </si>
@@ -461,31 +461,596 @@
     <t>link</t>
   </si>
   <si>
-    <t>https://openai.com/index/chatgpt/</t>
-  </si>
-  <si>
-    <t>madeup1</t>
-  </si>
-  <si>
-    <t>still made up</t>
-  </si>
-  <si>
-    <t>madeup2</t>
-  </si>
-  <si>
-    <t>madeup3</t>
-  </si>
-  <si>
-    <t>madeup4</t>
-  </si>
-  <si>
-    <t>madeup5</t>
-  </si>
-  <si>
-    <t>still made up 2</t>
-  </si>
-  <si>
     <t>agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(+ Narrow bezels, great asymmetrical design
++ Fingerprints are not visible on the coating
++ Ergonomic adjustability of the stand, including pivot mode
++ RGB lights 
++ 240 Hz refresh rate via DP 1.4
++ Built-in speakers – do not sound great but comes good in emergency
++ 1440p @ 27”: sweet spot for gaming and work as well
++ QD-OLED panel with astounding image quality
++ Excellent colour accuracy 
++ 0.03 ms GtG response time
++ Great successor of the AG276QZD
++ In addition to gaming it is ideal for working, too
++ HDR Mode
++ Excellent, motion blur-free gaming experience
++ G-SYNC compatibility
++ Comprehensive OLED care functions 
++ Price
++ Warranty applies for burn-in as well 
++ Real blacks, beautiful colours </t>
+  </si>
+  <si>
+    <t>(- Terrible name
+- Lack of USB-C</t>
+  </si>
+  <si>
+    <t>I can honestly and unequivocally say that this is the best monitor in the world. […] In comparison with the competitors such as the ASUS ROG Swift PG27AQDM or the MSI MPG 271QRX, the AOC is significantly cheaper. […] The AG276QZD2 is only 250K forints and I know it is also a lot of money but this is an impressive price tag for a 240 Hz 1440p 27” QD-OLED monitor.</t>
+  </si>
+  <si>
+    <t>Hungry</t>
+  </si>
+  <si>
+    <t>Matthew Peel</t>
+  </si>
+  <si>
+    <t>Dorka Dobos</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZC_mWm1v7iQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+) 26.7" QD-OLED panel with 2560x1440p resolution (2K)
+(+) Excellent price-to-performance ratio (most affordable in its category)
+(+) True blacks and exceptional contrast typical of OLED
+(+) 240 Hz refresh rate and ultra-fast 0.03 ms response time
+(+) Anti-reflective coating
+(+) DisplayHDR True Black 400 certification
+(+) Excellent colour reproduction (138% sRGB, 99% DCI-P3, 98% Adobe RGB) and DeltaE &lt; 2 for colour accuracy
+(+) 250 nits SDR brightness, 450 nits HDR brightness (up to 1000 nits in 3% of screen area)
+(+) Adaptive Sync (48-240 Hz range)
+(+) Comprehensive connectivity (2x HDMI 2.0, 2x DisplayPort 1.4, 2x USB 3.2)
+(+) Built-in speakers and headphone jack
+(+) Quality cables included in the box
+(+) RGB lighting on the back (Light FX)
+(+) Multiple OLED protection features and 3-year warranty including OLED panel
+(+) Full ergonomic stand (height, tilt, swivel, pivot adjustments) and VESA mount support
+(+) Turkish language support in OSD
+(+) Game-specific features (preset modes, Shadow Control, Sniper Scope)
+(+) G-Menu software with firmware updates</t>
+  </si>
+  <si>
+    <t>(-) Plastic build quality that doesn't feel premium
+(-) Limited to 144 Hz at full resolution when using HDMI
+(-) Cable management clip on stand seems fragile and likely to break
+(-) External power adapter (135W) is somewhat bulky 
+(-) Some minor translation errors in the software</t>
+  </si>
+  <si>
+    <t>The AOC AGON PRO AG276QZD2 is an attractive 27-inch QD-OLED monitor offering 2K resolution at 240 Hz with excellent colour reproduction. At around 22,000 TRY, it's one of the most competitively priced monitors in this category - similar models cost over 30,000 TRY. With comprehensive connectivity, multiple OLED protection features, and a 3-year warranty, it's an ideal candidate for users looking to purchase their first OLED monitor. While primarily marketed for gaming with its ultra-fast response time and game-specific features, it's also suitable for creative work and general use with its excellent colour accuracy.</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>(+ Narrow bezels
++ RGB lights on the back
++ Ergonomic adjustability of the stand, including pivot mode
++ 240 Hz refresh rate
++ 0.03 ms GtG response time
++ Gaming presets
++ OLED panel is adding a lot to the gaming experience
++ OLED Care functions 
++ Infinite blacks, deep contrasts, vivid colours of the OLED panel: new level of visual experience</t>
+  </si>
+  <si>
+    <t>(- VESA mount is only available through a separate adapter
+- Quality of the speakers is disappointing
+- Design of the stand base</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hungry</t>
+  </si>
+  <si>
+    <t>Devon Tech</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oejElmMX-G0&amp;t</t>
+  </si>
+  <si>
+    <t>(+) Unobtrusive design
+(+) Good ergonomics
+(+) G-Menu software included for configuration of monitor
+(+) Solid pixel density
+(+) Authentic and nuanced colours
+(+) High refresh rate of 240 Hz and arrow-fast response time of 0.03 ms
+(+) Very homogeneous brightness</t>
+  </si>
+  <si>
+    <t>(-) Display has relatively strong mirror effect</t>
+  </si>
+  <si>
+    <t>Even on paper, the AOC AGON PRO AG276QZD2 is hard to beat in the category up to 27″. In fact, the subjective image impression is just as flawless as hoped and the colors of virtual worlds are very full-bodied yet neutral. In terms of brightness and especially its homogeneity, the model stands out exceptionally.
+A trade-off between IPS glow or viewing angle-dependent TN panels is simply not necessary here and the QD-OLED panel type used by AOC appears very mature in all conceivable criteria. Even the standard settings are convincing. Should this not be the case, G-Menu is used for modifications. The pixel density is perhaps the only rather common feature, but it is in reasonable proportion to the screen size.
+Installation is very familiar and quick, as it corresponds to the procedure for many other monitors. Similarly, the angular stand is perfectly dimensioned and very solid; the advertised space-saving design therefore does not entail any noticeable disadvantages in terms of stability.
+The question is whether the high power consumption of the targeted 29 watts and the price could deter the target group. This is rather unlikely, as esports enthusiasts do not want to make their skills dependent on limiting technology and instead want to win high prize money. At the same time, the native WQHD resolution will always go hand in hand with a powerful graphics card. In this context, the AGON PRO is absolutely right to buy qualities such as QD-OLED through a few necessities.
+The only real disadvantage is the clear reflection of the display. In view of this minimalist criticism, however, the AGON PRO can actually be recommended almost in its entirety. A good monitor outlasts one or two PCs and is therefore worth a higher investment.</t>
+  </si>
+  <si>
+    <t>OCinside.de</t>
+  </si>
+  <si>
+    <t>Erdem Mansur</t>
+  </si>
+  <si>
+    <t>https://www.ocinside.de/test/aoc_ag276qzd2_d/</t>
+  </si>
+  <si>
+    <t>RedGamingTech</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-EGvuqH9y8E</t>
+  </si>
+  <si>
+    <t>Welshytech</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0FK0zFpPJUI</t>
+  </si>
+  <si>
+    <t>gamer.hu</t>
+  </si>
+  <si>
+    <t>https://gamer.hu/2025/04/11/aoc-24g42e-gamer-monitor-teszt-180-hz-et-mindenkinek/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philips </t>
+  </si>
+  <si>
+    <t>(+ 100 Hz refresh rate   
++ 2560 x 1440 (Quad HD) @ 27” size: 109 PPI
++ IPS panel with 16.7M colours
++ LightSensor and PowerSensor for energy saving
++ Headphone holder
++ Rich connectivity, including HDMI 2.0 x 2, DisplayPort 1.4 x 1
+(+ Built-in power supply
++ Compact size and beautiful design of the monitor stand
++ OSD interface is very user-friendly and simple
++ Good price performance</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Kursors</t>
+  </si>
+  <si>
+    <t>https://kursors.lv/2025/03/25/philips-27b2g5500-1440p-100-hz-biznesa-klases-monitora-apskats/</t>
+  </si>
+  <si>
+    <t>https://kursors.lv/2025/03/26/philips-34b2u5600c-liekta-4k-ofisa-monitora-ar-usb-c-un-kvm-apskats/</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Technologijos.lt</t>
+  </si>
+  <si>
+    <t>http://www.technologijos.lt/rinka/apzvalgos/S-200229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We give it an unreserved buy recommendation - you will hardly find a better QHD monitor for this price.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HardwareDealz </t>
+  </si>
+  <si>
+    <t>https://www.hardwaredealz.com/bester-monitor-die-besten-gaming-monitore</t>
+  </si>
+  <si>
+    <t>(+) 26.5" WQHD OLED panel with MLA (Micro Lens Array)
+(+) 240 Hz refresh rate
+(+) Nearly 100% DCI-P3 and true 10-bit colour depth
+(+) Outstanding results in colour accuracy, gamma and white point when limited to sRGB – this model performs exceptionally well in these areas
+(+) AMD FreeSync Premium &amp; G-Sync compatible
+(+) Excellent contrast and ultra-fast response times
+(+) 2x DisplayPort 1.4 &amp; 2x HDMI 2.0
+(+) Full ergonomic adjustability</t>
+  </si>
+  <si>
+    <t>In our opinion, this monitor currently offers the best price-performance ratio and a great entry into OLED panels!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34B2U6603CH </t>
+  </si>
+  <si>
+    <t>(+ 120 Hz refresh rate and 34’’ size
++ Thunderbolt 4 port connectivity
++ VA LCD panel type
++ VESA-certified DisplayHDR 400
++ Curved display
++ Outstanding connectivity options including HDMI 2.0 x 2, DisplayPort 1.4 x 1, Thunderbolt 4 x 1
++ Pop-up camera with Windows Hello support
++ Built-in speakers
++ -/+ 180  degree swivel
++ 4 ms reaction time
++ Noise cancelling microphone 
++ Busylight feature</t>
+  </si>
+  <si>
+    <t>(- Built in 5 W x 2 speakers are good for small tasks, but not movies   
+- 450 nits (SDR) brightness- not the best, but good enough for office and home office use
+- Average colour accuracy</t>
+  </si>
+  <si>
+    <t>If you're used to working with two screens or pairing a monitor with a laptop in your home office, the Philips 34B2U6603CH offers an excellent single screen alternative. Its ultra-wide curved design provides ample workspace while maintaining consistent colour and contrast from all viewing angles. The video quality is sharp and vibrant, making it not only ideal for office tasks and video editing but also more than capable of handling occasional gaming. One of the monitor's standout features is its exceptional connectivity options with multiple ports for seamless integration into any setup. The 34" size hits the sweet spot for productivity, and at its price point, it delivers great value. This is a reliable, high-performing monitor that suits professionals who want the benefits of dual screens without the clutter. If you're in the market for a spacious and feature-rich display, the 34B2U6603CH is a safe buy - you won’t regret it.</t>
+  </si>
+  <si>
+    <t>Konsumer</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lUPVGoTp8wU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CQ32G4VE </t>
+  </si>
+  <si>
+    <t>PCMonitors.info</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YVCzFnXlCEE</t>
+  </si>
+  <si>
+    <t>All in all, we were very satisfied with it, because for the price, the knowledge is outstanding. It's a great buy for someone who doesn't want to or can't spend a lot on a monitor they'll use for gaming</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Origo Techbázis</t>
+  </si>
+  <si>
+    <t>https://www.origo.hu/techbazis/2025/04/gamer-monitor-megfizetheto-aoc-24g42e</t>
+  </si>
+  <si>
+    <t>After using this monitor for several months, I believe it’s suited for those that are running a small business, those who prioritise productivity over gaming or those looking for a monitor that is versatile and can connect multiple devices.</t>
+  </si>
+  <si>
+    <t>Ricky’s TechTalk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oqzb1USx7uQ</t>
+  </si>
+  <si>
+    <t>24G4X</t>
+  </si>
+  <si>
+    <t>gamestar.de</t>
+  </si>
+  <si>
+    <t>https://www.gamestar.de/artikel/bester-gaming-monitor-vergleich-2025-wqhd-ultrawide-4k-full-hd,2570125.html</t>
+  </si>
+  <si>
+    <t>27B2U6903</t>
+  </si>
+  <si>
+    <t>Mediaberry</t>
+  </si>
+  <si>
+    <t>https://mediaberry.co.uk/philips-27b2u6903-business-monitor-review/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU34P3CV </t>
+  </si>
+  <si>
+    <t>(+) 34-inch ultrawide curved (1500R) display
+(+) Three-sided frameless bezel design
+(+) VA panel with good contrast and deep blacks
+(+) 100 Hz refresh rate
+(+) 21:9 aspect ratio for more horizontal space
+(+) USB-C connectivity with DisplayPort Alt mode and 65 W power delivery (great for laptops)
+(+) Built-in 5W speakers (per side)
+(+) USB hub with USB 3.2 Gen 1 ports
+(+) Good for productivity (multitasking, side-by-side applications)
+(+) Suitable for casual gaming
+(+) Works well in dual-monitor setups
+(+) All necessary cables included</t>
+  </si>
+  <si>
+    <t>(-) Takes up significant desk space
+(-) Cable management challenges with multiple monitors
+(-) Requires powerful graphics card for dual-monitor gaming (RTX 4070 recommended)
+(-) Potential for more distractions with increased screen real estate</t>
+  </si>
+  <si>
+    <t>The AOC CU34P3CV itself, look at the sleek design... My first impressions are really positive, this looks like a quality piece of kit. [...] Going from one to two of these has completely streamlined my workflow. The 21:9 aspect ratio of each monitor gives you so much horizontal space to work with, and thanks to the USB-C docking, my laptop charges while transferring data — less clutter, more hype. This isn't just about more screen space, it's about creating an environment that lets you work smarter and faster, and trust me, when you double your screens, you double your efficiency. [...] For those who game hard, the impact is unreal. A 100 Hz refresh rate and an immersive 21:9 aspect ratio on both monitors means every frame is crisp and every detail is in view. It's a great setup for having your main game on one screen while keeping an eye on your live chat or strategy on the other. You're basically having your cake and eating it too — ultimate immersion with no compromises. [...] So if you're ready to level up your workspace and gaming experience, then adding a second AOC CU34P3CV monitor might just be the upgrade you need.</t>
+  </si>
+  <si>
+    <t>TechFigure</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=11Du5QvraV8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG246FK </t>
+  </si>
+  <si>
+    <t>(+ 540 Hz refresh rate
++ Spectacular image quality
++ Excellent colour accuracy
++ Design tailored to player needs in all areas
++ Plenty of setting options 
++ Comes with many extras
++ Robust structure 
+(+) Excellent price / value ratio
+(+) Well and safely packed
+(+) QuickSwitch, VESA mount included
+(+) 2 x headset holders
+(+) Kensington lock
+(+) Ergonomic adjustability, including pivot mode 
+(+) Easy setup
+(+) Carrying handle
+(+) Gaming experience is next level (by Windows 10 500 Hz is the max, by consoles 120 Hz)
+(+) The best choice for FPS games, it really affects the gaming performance 
+(+) Joystick for OSD navigation, users can save their setting in their profiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(- Viewing angles are quite poor
+- Brightness could be better 
+- Lack of USB-C
+(-) Location of the ports 
+(-) Lack of Hungarian language in OSD </t>
+  </si>
+  <si>
+    <t>It was our first encounter with a 540 Hz gamer monitor, but we were very impressed with it from the first few minutes, and the more we used it, the more it proved what it could do. There are some minor flaws, but they are manageable, and for that reason, and the premium solutions inside and out, we'd recommend it for even competitive FPS gaming. It's a perfect choice if you can't afford a Zowie monitor, for example, but want to get the most for your money, as AOC has once again proven that they're virtually unbeatable on the market when it comes to value for money.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tesztplussz.hu </t>
+  </si>
+  <si>
+    <t>https://tesztplussz.hu/aoc-agon-pro-ag246fk-gamer-monitor-teszt/</t>
+  </si>
+  <si>
+    <t>(+ Many ports, incl. Thunderbolt 4 and USB-C with power delivery
++ KVM switch with hotkey
++ Good image quality
++ Power efficient usage
++ 5 years warranty
+(+) Good ergonomics
+(+) Environmental sensors for even more power efficiency
+(+) High colour fidelity
+(+) TCO gen 10 certified</t>
+  </si>
+  <si>
+    <t>(- OSD buttons not illuminated
+- Complicated switching in PiP/PbP mode</t>
+  </si>
+  <si>
+    <t>The Philips 27B2U6903 is recommended as a powerful business monitor for office use and delivers as promised in terms of features and ergonomics. Among other things, the 4K screen scores points with a Thunderbolt 4 interface and a sensor package that ensures energy-saving operation. The 27-inch display scores further points with its generous 5-year warranty period. It only lacks a webcam to make it an office all-rounder.</t>
+  </si>
+  <si>
+    <t>connect professional</t>
+  </si>
+  <si>
+    <t>https://www.connect-professional.de/office-kommunikation/geballte-teamkompetenz.333277.html</t>
+  </si>
+  <si>
+    <t>(+ Good price-performance ratio
++ Rich colours and deep blacks
++ Fast refresh rate
++ Also suitable for mid-range setups
++ Ambiglow function</t>
+  </si>
+  <si>
+    <t>(- Not very bright with glossy display
+- No USB-C with Power Delivery
+- Operation and menu confusing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From a price-performance perspective, the Philips Evnia 34M2C6500 is a really good choice. If you're simply looking for a nice picture with superb black and colour reproduction, don't want to spend a fortune on an UltraWide OLED monitor and don't have a high-end graphics card, this gaming monitor is currently one of the cheapest of its kind. This is why we have decided to give it our price-performance award. </t>
+  </si>
+  <si>
+    <t>https://www.gamestar.de/artikel/philips-evnia-34m2c6500-test,3428453.html</t>
+  </si>
+  <si>
+    <t>27B2G5500</t>
+  </si>
+  <si>
+    <t>(+ Energy efficiency: offers decent power saving with special features
++ Adjustable stand: can be moved to any position ergonomically
++ 100 Hz is a better refresh rate
+(+) LowBlue mode and SoftBlue technology
+(+) 2 USB ports and audio port on the side of the monitor is more comfortable</t>
+  </si>
+  <si>
+    <t>(- No USB-C
+- Colour coverage is rather mediocre</t>
+  </si>
+  <si>
+    <t>Overall, the Philips 27B2G5500 is a solid choice for businesses that prioritise energy efficiency and ergonomic design, although it may not be ideal for tasks that require high colour accuracy or USB-C connectivity</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM.ee </t>
+  </si>
+  <si>
+    <t>https://www.am.ee/node/9150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27M2C5501 </t>
+  </si>
+  <si>
+    <t>(+ QHD 180 Hz VA panel 
++ Ergonomic adjustability of the stand
++ G-SNYC compatible 
++ Great gaming experience
++ High contrast is ideal for games with more vivid visuals, like Overwatch 2
++ Decent colours 
++ White design</t>
+  </si>
+  <si>
+    <t>(- Performance of Ambiglow: the system didn't always recognise colours (except when the image was quite homogeneous) 
+- Curve at 27” is not too impressive</t>
+  </si>
+  <si>
+    <t>The Philips Evnia 27M2C5501 turned out to be a nice little piece of kit. The VA panel did what I expected and didn't do anything I was afraid of. However, looking at the price of around 95-100 thousand forints, I don't really know where to put this monitor: it seems a bit expensive compared to what others are offering for around the same price. Of course, a nice white housing is rare in monitors, but is it worth it?</t>
+  </si>
+  <si>
+    <t>playdome.hu</t>
+  </si>
+  <si>
+    <t>https://www.playdome.hu/cikk/63334/philips-evnia-27m2c5501-monitorteszt-meghajlitva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49B2U6903CH </t>
+  </si>
+  <si>
+    <t>(+ Very good image quality
++ High resolution
++ Integrated webcam
++ Integrated speakers
++ USB-C hub (with power delivery)</t>
+  </si>
+  <si>
+    <t>(- Expensive</t>
+  </si>
+  <si>
+    <t>With the Philips 49B2U6903CH, Philips delivers a sophisticated further development that is even more versatile thanks to higher brightness, 120 Hz and Thunderbolt 4. The elegant design, numerous connections and clever office features - including a webcam, headphone holder and status display - make it the ideal companion for productive days in the home office. Although the device is less suitable for pure gamers, anyone who primarily works and is also looking for a movie screen for multitasking will find a convincing solution here.</t>
+  </si>
+  <si>
+    <t>faz.net</t>
+  </si>
+  <si>
+    <t>https://www.faz.net/kaufkompass/test/der-beste-curved-monitor/</t>
+  </si>
+  <si>
+    <t>34B2U6603CH</t>
+  </si>
+  <si>
+    <t>(+ Very good image quality
++ Hook for headset
++ Integrated webcam
++ Integrated speakers
++ USB-C hub (with power delivery)</t>
+  </si>
+  <si>
+    <t>The Philips 34B2U6603CH is a compact alternative to the big test winner and offers an excellent 34-inch curved display for the home office. With a high resolution of 3,440 × 1,440 pixels, 550 nits of brightness and a curvature of 1500R, it is easy on the eyes and impresses with modern features such as a pop-up webcam and Thunderbolt 4. The versatile connections and easy handling make it ideal for productive work. However, gamers and creative professionals should consider alternatives as it lacks gaming features and DCI-P3 colour gamut specifications.</t>
+  </si>
+  <si>
+    <t>(+ Almost perfect factory calibration
++ Sumptuous colour
++ Outstanding for all uses, not just gaming
++ Natural and impressive HDR
++ Far cheaper than the competition using the same panel
+(+) Glossy screen improves sharpness while diffusing ambient light and preventing reflections
+(+) Looks far brighter thanks to infinite contrast
+(+) OSD is intuitive and easy to navigate with the joystick
+(+) Comprehensive selection of ports including USB hub
+(+) Sturdy and unobtrusive flat base, impressive amount of ergonomic adjustability, incl. pivot mode
+(+) Excellent build quality with sturdy metal stand
+(+) No annoying brightness limiter
+(+) Out-of-the-box colour accuracy with an average DeltaE of 0.80, after calibration the average DeltaE improved to 0.04
+(+) Native 10-bit colour depth with sRGB 100% coverage – 158.5% volume, AdobeRGB 93.2% coverage – 109.2% volume, DCI-P3 97.0% coverage – 112.3% volume
+(+) Excellent luminance uniformity (only a maximum of 2% variance with 50% brightness) and colour uniformity (max. DeltaE of 2.1 with 100% brightness)</t>
+  </si>
+  <si>
+    <t>(- No USB-C
+- Uninspiring speakers
+- Only DP 1.4 so limited to DSC at higher refresh rates
+(-) No KVM switch, no QuickSwitch puck or a remote
+(-) Dated OSD design</t>
+  </si>
+  <si>
+    <t>The AOC AGON PRO AG326UD is my favourite OLED monitor so far. It is perfectly set up straight out of the box, and the colours and extensive dynamic range inherent to its QD-OLED panel are simply stunning. Like most OLEDs, the blistering responsiveness makes it a gamer’s dream, and it’s also an amazing display for watching your favourite shows and movies. Combine it with one of the best modern GPUs and/or the latest consoles, and you’ve got a sumptuous visual experience that’s hard to beat, especially at this price point.
+If you’ve managed to snag an RTX 5090 or you want to plan for the future of your setup, you may want to consider holding out for AOC’s take on the next gen of monitors, with 4K/240 Hz (and dual-refresh/resolution) panels gradually hitting the market, but in the here and now, this is the monitor I’d buy to replace my already great 32” UHD monitor.</t>
+  </si>
+  <si>
+    <t>total gaming addicts</t>
+  </si>
+  <si>
+    <t>https://totalgamingaddicts.com/aoc-agon-pro-ag326ud-qd-oled-monitor-review/</t>
+  </si>
+  <si>
+    <t>CQ27G4X</t>
+  </si>
+  <si>
+    <t>(+) 180 Hz refresh rate with minimal motion blur
+(+) 1 ms response time
+(+) QHD resolution (2560x1440p)
+(+) 93.1% DCI-P3 colour coverage
+(+) 4,000:1 contrast ratio for deep blacks
+(+) Three-sided frameless design
+(+) 1500R curve for better immersion
+(+) Fully adjustable stand
+(+) VESA mount compatible (100x100)
+(+) Adaptive-Sync support
+(+) Excellent value at £150</t>
+  </si>
+  <si>
+    <t>(-) Limited brightness (300 nits)
+(-) VA panel struggles with dark colour accuracy
+(-) No official NVIDIA G-SYNC certification
+(-) No built-in speakers
+(-) Limited HDR capabilities
+(-) Not suitable for professional colour work</t>
+  </si>
+  <si>
+    <t>Is the AOC CQ27G4X the ultimate budget gaming monitor for £150? Absolutely. That 180 Hz refresh rate, 1 ms response time, Adaptive-Sync make it an excellent choice for gamers who prioritise performance. […] While the brightness and HDR may not be as high-end as more expensive monitors, remember we're talking about a £150 monitor, so these are minor drawbacks. […] If you're on a budget and still want a solid, immersive gaming experience from a well-known brand, this is fantastic</t>
+  </si>
+  <si>
+    <t>I’m CheCo Tech</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=e5XCL0d5CyY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32B1U3900 </t>
+  </si>
+  <si>
+    <t>(+) Massive metal stand
+(+) Good connectivity incl. USB hub and LAN
+(+) Rotatable, height-adjustable and with pivot
+(+) Easy-to-use and comprehensive OSD
+(+) Good colour quality
+(+) Flicker-Free</t>
+  </si>
+  <si>
+    <t>24-7-TopTipp</t>
+  </si>
+  <si>
+    <t>Meike Koch</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YMD6mGT9-1g</t>
+  </si>
+  <si>
+    <t>(+) Very high colour saturation
+(+) Perfect black levels
+(+) HDR looks great and maintains good colour accuracy (Evnia has best HDR performance) 
+(+) Amazing response times
+(+) Evnia: Ambiglow great and very useful as bias light
+(+) AGON: stand needs much less space than others
+(+) 3-year-warranty including burn-in (in Europe, not available in the USA, though)</t>
+  </si>
+  <si>
+    <t>(-) AGON: only 240 Hz compared to the 360 Hz of the other models
+(-) AGON: EOTF tracking is off</t>
+  </si>
+  <si>
+    <t>Performance-wise though, these three monitors, despite being some of the cheapest in the market, can easily compete with the more expensive QDO-level monitors. I'm especially impressed with this Philips monitor. It's the most well-rounded of these three and, even ignoring the price tag, I think it's one of the best monitors with this panel in the market. I mean that Ambiglow bias light alone is pretty useful and a unique feature that all the other monitors just don't have. And given how similar the performance of all these monitors that use Samsung's QD-OLED panel really is, a feature like this is more than enough to make it stand out.</t>
+  </si>
+  <si>
+    <t>techless</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yAwhqmtVtjo</t>
   </si>
 </sst>
 </file>
@@ -582,7 +1147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -602,6 +1167,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -908,10 +1474,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="62" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -951,7 +1517,7 @@
         <v>84</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>85</v>
@@ -976,18 +1542,10 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1008,18 +1566,10 @@
       <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1040,18 +1590,10 @@
       <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="248.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -1072,18 +1614,10 @@
       <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -1104,18 +1638,10 @@
       <c r="F6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -1136,18 +1662,10 @@
       <c r="F7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -1166,18 +1684,10 @@
       <c r="F8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -1196,18 +1706,10 @@
       <c r="F9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="286.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -1228,18 +1730,10 @@
       <c r="F10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -1260,18 +1754,10 @@
       <c r="F11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -1292,18 +1778,10 @@
       <c r="F12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -1322,18 +1800,10 @@
         <v>56</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -1352,18 +1822,10 @@
         <v>59</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -1382,18 +1844,10 @@
         <v>63</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -1412,18 +1866,10 @@
         <v>63</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -1442,18 +1888,10 @@
         <v>67</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
@@ -1472,18 +1910,10 @@
         <v>70</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="337.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -1504,18 +1934,10 @@
       <c r="F19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="286.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
@@ -1536,18 +1958,10 @@
       <c r="F20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -1568,42 +1982,1068 @@
       <c r="F21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" ht="304" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="395" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>86</v>
+      <c r="H26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="304" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{FEE81927-2118-BA49-93BD-C2EBEB86AF5A}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{4571AE71-CB19-374D-93FE-7E5FE6AD5005}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{35160F32-259F-8246-9826-5B967BFE1CC2}"/>
-    <hyperlink ref="J5" r:id="rId4" xr:uid="{AC3C253A-1A2B-0640-85AC-7A92E0D4547A}"/>
-    <hyperlink ref="J6" r:id="rId5" xr:uid="{0B77A3B4-3D3A-9145-9DBD-96F3F660D122}"/>
-    <hyperlink ref="J7" r:id="rId6" xr:uid="{F937083B-3AFF-A442-9A52-8E03E62B73D8}"/>
-    <hyperlink ref="J8" r:id="rId7" xr:uid="{20F29672-A680-E54A-90F3-F4978235FA3F}"/>
-    <hyperlink ref="J9" r:id="rId8" xr:uid="{171F3680-E5C9-234C-904D-578E79CB10D8}"/>
-    <hyperlink ref="J10" r:id="rId9" xr:uid="{90705F21-2572-B340-8A01-100B5D431794}"/>
-    <hyperlink ref="J18" r:id="rId10" xr:uid="{887B1C0E-B292-814E-B2D8-F9A36BA1F599}"/>
-    <hyperlink ref="J11" r:id="rId11" xr:uid="{0B3F23C7-1924-3542-8303-72C06766CF07}"/>
-    <hyperlink ref="J12" r:id="rId12" xr:uid="{6CBCFACE-3F11-EB4D-84DF-6634DA60DEA7}"/>
-    <hyperlink ref="J13" r:id="rId13" xr:uid="{DB7E65DB-EACA-8B4D-BE55-FAD3EBCF98BB}"/>
-    <hyperlink ref="J14" r:id="rId14" xr:uid="{D10415EC-AC3F-794D-BB17-B8F647CF493B}"/>
-    <hyperlink ref="J15" r:id="rId15" xr:uid="{CFA7EF42-0669-EA49-9646-5ACA82CD81CA}"/>
-    <hyperlink ref="J16" r:id="rId16" xr:uid="{0F4C9F19-436F-374A-86DB-1DF1FED25505}"/>
-    <hyperlink ref="J17" r:id="rId17" xr:uid="{9B13188B-0B9D-5A46-8658-FDAFC5DCAE9A}"/>
-    <hyperlink ref="J19" r:id="rId18" xr:uid="{57A1AFA5-5173-834E-A415-736069076CE3}"/>
-    <hyperlink ref="J20" r:id="rId19" xr:uid="{356FCE71-50C2-6942-A5FE-98EC2C7D11A2}"/>
-    <hyperlink ref="J21" r:id="rId20" xr:uid="{D18B053D-7AAE-0F42-ABD9-C86F89DC13A0}"/>
+    <hyperlink ref="J22" r:id="rId1" xr:uid="{A671D2C7-8365-894E-A067-84E5DF752F4F}"/>
+    <hyperlink ref="J24" r:id="rId2" xr:uid="{3EC37393-624C-3547-8C37-E88F2418FAEC}"/>
+    <hyperlink ref="J25" r:id="rId3" xr:uid="{A57D4455-EFF8-7F44-8E01-527E89215D03}"/>
+    <hyperlink ref="J26" r:id="rId4" xr:uid="{1FC40DF6-1D24-DF45-8872-C81B556F6376}"/>
+    <hyperlink ref="J27" r:id="rId5" xr:uid="{A59CCB37-F996-F446-B2BD-87EAD31443E9}"/>
+    <hyperlink ref="J28" r:id="rId6" xr:uid="{9E22681A-FC79-974D-9566-1CA8B3DF8B33}"/>
+    <hyperlink ref="J29" r:id="rId7" xr:uid="{B432BC93-B54B-A840-87A9-1CA79AA7AAA5}"/>
+    <hyperlink ref="J30" r:id="rId8" xr:uid="{3340CEC7-F1B7-E94A-86D1-99908DCBA53D}"/>
+    <hyperlink ref="J31" r:id="rId9" xr:uid="{DCDDCD8B-5C2C-8541-A739-7B2C8AD8CEBE}"/>
+    <hyperlink ref="J32" r:id="rId10" xr:uid="{BF688DD1-2744-6146-B537-83D9D02B798B}"/>
+    <hyperlink ref="J33:J34" r:id="rId11" display="https://www.hardwaredealz.com/bester-monitor-die-besten-gaming-monitore" xr:uid="{81E35F26-1708-3741-A073-9F49EE0C6D2F}"/>
+    <hyperlink ref="J35" r:id="rId12" xr:uid="{470F40A6-70A1-084F-9E3F-8FDF4D533B34}"/>
+    <hyperlink ref="J36" r:id="rId13" xr:uid="{E61F4F0D-1B56-8B48-9656-63DEFB1581CA}"/>
+    <hyperlink ref="J37" r:id="rId14" xr:uid="{40D6D701-942A-9D45-9ED0-1F1C1DE3A30B}"/>
+    <hyperlink ref="J38" r:id="rId15" xr:uid="{10C5DC0E-A505-454A-87B6-DC4636FB5272}"/>
+    <hyperlink ref="J39" r:id="rId16" xr:uid="{E58BC628-F9CF-4843-87C7-42E0FAB7746E}"/>
+    <hyperlink ref="J40" r:id="rId17" xr:uid="{F591BFF2-5C49-2B49-946F-3F87B14A1B6E}"/>
+    <hyperlink ref="J41" r:id="rId18" xr:uid="{C34E77AB-B835-D045-AC90-05A9FDBD03BA}"/>
+    <hyperlink ref="J42" r:id="rId19" xr:uid="{B574F334-EE3C-794F-BF5A-C726BBA458F9}"/>
+    <hyperlink ref="J43" r:id="rId20" xr:uid="{85313BAC-9C2E-6443-997D-C07E6F09AD85}"/>
+    <hyperlink ref="J44" r:id="rId21" xr:uid="{7E14DD14-F70E-2A4C-BB02-1F86BD62D882}"/>
+    <hyperlink ref="J45" r:id="rId22" xr:uid="{316A5D36-D0A3-2849-9BA1-19D671249042}"/>
+    <hyperlink ref="J46" r:id="rId23" xr:uid="{74C89D44-259E-8647-8084-29F18631A519}"/>
+    <hyperlink ref="J47" r:id="rId24" xr:uid="{F3B072EB-CA2E-BC46-B08C-9EB65B7F2AE2}"/>
+    <hyperlink ref="J48" r:id="rId25" xr:uid="{06C5449E-63B4-4643-9318-35B80338F70C}"/>
+    <hyperlink ref="J49" r:id="rId26" xr:uid="{EAC4A687-9247-8B4B-A867-528FDD654317}"/>
+    <hyperlink ref="J50" r:id="rId27" xr:uid="{1036BC7F-8B79-B643-BD26-5DCEB289331A}"/>
+    <hyperlink ref="J51" r:id="rId28" xr:uid="{66CAF1E2-42C7-0E4A-A180-5D0F72B5D90A}"/>
+    <hyperlink ref="J52" r:id="rId29" xr:uid="{289AC1FC-D0A6-DB49-B869-FC653A7BEB50}"/>
+    <hyperlink ref="J53" r:id="rId30" xr:uid="{9EA6C3B0-7DBE-7C4D-81F9-2F5D79065A23}"/>
+    <hyperlink ref="J54" r:id="rId31" xr:uid="{6A40AE04-3E31-374B-8BCE-3E7C67C3EAB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
